--- a/data/casetas.xlsx
+++ b/data/casetas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonvc/NODE LOCAL/bot-casetas-mexico/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonvc/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C23C77-3763-344C-9BE9-47573C1D895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B164EDAC-C03F-7641-9328-A011FB86129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12040" yWindow="5420" windowWidth="19300" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casetas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t>Nombre</t>
   </si>
@@ -62,13 +62,127 @@
   </si>
   <si>
     <t>Caseta San Juan del Río</t>
+  </si>
+  <si>
+    <t>Caseta chalco</t>
+  </si>
+  <si>
+    <t>Mexico-puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caseta san marcos bis </t>
+  </si>
+  <si>
+    <t>Caseta san martin Texmelucan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caseta san marcos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseta tehuacan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseta amozoc </t>
+  </si>
+  <si>
+    <t>circuito ext mexiquense</t>
+  </si>
+  <si>
+    <t>caseta T1 Tultepec</t>
+  </si>
+  <si>
+    <t>caseta T0 Jorobas</t>
+  </si>
+  <si>
+    <t>caseta T2 Conmex</t>
+  </si>
+  <si>
+    <t>caseta T3 Nabor Carrillo (Puebla)</t>
+  </si>
+  <si>
+    <t>casetas T3 nabor carrillo (Bordo)</t>
+  </si>
+  <si>
+    <t>caseta T4 chalco</t>
+  </si>
+  <si>
+    <t>caseta A2 hank gonzalez</t>
+  </si>
+  <si>
+    <t>caseta A6 periferico</t>
+  </si>
+  <si>
+    <t>caseta A21 bordo de xochiaca</t>
+  </si>
+  <si>
+    <t>casetas A22 bordo de xochiaca</t>
+  </si>
+  <si>
+    <t>caseta T7 texcoco</t>
+  </si>
+  <si>
+    <t>caseta A27 san buena ventura</t>
+  </si>
+  <si>
+    <t>caseta A28 san buena ventura</t>
+  </si>
+  <si>
+    <t>caseta T5 tultitlan</t>
+  </si>
+  <si>
+    <t>caseta T6 cucutitlan</t>
+  </si>
+  <si>
+    <t>caseta san cristobal (ecatepec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseta revolucion 91 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caseta ojo de agua </t>
+  </si>
+  <si>
+    <t>mexico-pachuca</t>
+  </si>
+  <si>
+    <t>caseta peñon texcoco</t>
+  </si>
+  <si>
+    <t>peñon-texcoco</t>
+  </si>
+  <si>
+    <t>casetas entronque peñon</t>
+  </si>
+  <si>
+    <t>caseta de tlalpan</t>
+  </si>
+  <si>
+    <t>mexico-cuernavaca</t>
+  </si>
+  <si>
+    <t>caseta tres marias</t>
+  </si>
+  <si>
+    <t>caseta la venta-atizapan</t>
+  </si>
+  <si>
+    <t>toluca-naucalpan</t>
+  </si>
+  <si>
+    <t>caseta marquesa</t>
+  </si>
+  <si>
+    <t>mexico-toluca</t>
+  </si>
+  <si>
+    <t>caseta la venta-marquesa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -81,6 +195,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,9 +228,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,11 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -567,7 +697,936 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>-98.881674000000004</v>
+      </c>
+      <c r="C5">
+        <v>19.291975999999998</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>-98.875939000000002</v>
+      </c>
+      <c r="C6">
+        <v>19.293316999999998</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>-98.385598999999999</v>
+      </c>
+      <c r="C7">
+        <v>19.240756999999999</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>111</v>
+      </c>
+      <c r="F7">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>-98.870662999999993</v>
+      </c>
+      <c r="C8">
+        <v>19.296441999999999</v>
+      </c>
+      <c r="D8">
+        <v>156</v>
+      </c>
+      <c r="E8">
+        <v>288</v>
+      </c>
+      <c r="F8">
+        <v>301</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>-97.456113999999999</v>
+      </c>
+      <c r="C9">
+        <v>18.487238000000001</v>
+      </c>
+      <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>-98.032128999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19.050028999999999</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>162</v>
+      </c>
+      <c r="F10">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>-99.239707999999993</v>
+      </c>
+      <c r="C11">
+        <v>19.819889</v>
+      </c>
+      <c r="D11">
+        <v>155</v>
+      </c>
+      <c r="E11">
+        <v>321</v>
+      </c>
+      <c r="F11">
+        <v>322</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>-99.079931999999999</v>
+      </c>
+      <c r="C12">
+        <v>19.694092999999999</v>
+      </c>
+      <c r="D12">
+        <v>109</v>
+      </c>
+      <c r="E12">
+        <v>248</v>
+      </c>
+      <c r="F12">
+        <v>248</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>-99.020345000000006</v>
+      </c>
+      <c r="C13">
+        <v>19.575541999999999</v>
+      </c>
+      <c r="D13">
+        <v>77</v>
+      </c>
+      <c r="E13">
+        <v>177</v>
+      </c>
+      <c r="F13">
+        <v>177</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>-98.998236000000006</v>
+      </c>
+      <c r="C14">
+        <v>19.435749000000001</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>111</v>
+      </c>
+      <c r="F14">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>-98.998656999999994</v>
+      </c>
+      <c r="C15">
+        <v>19.435922999999999</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>-98.875102999999996</v>
+      </c>
+      <c r="C16">
+        <v>19.300114000000001</v>
+      </c>
+      <c r="D16">
+        <v>112</v>
+      </c>
+      <c r="E16">
+        <v>256</v>
+      </c>
+      <c r="F16">
+        <v>256</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>-99.038515000000004</v>
+      </c>
+      <c r="C17">
+        <v>19.610797000000002</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>-99.016385999999997</v>
+      </c>
+      <c r="C18">
+        <v>19.487165000000001</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>-98.998570999999998</v>
+      </c>
+      <c r="C19">
+        <v>19.425533000000001</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>-98.998734999999996</v>
+      </c>
+      <c r="C20">
+        <v>19.425757999999998</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>-98.910869000000005</v>
+      </c>
+      <c r="C21">
+        <v>19.450638999999999</v>
+      </c>
+      <c r="D21">
+        <v>47</v>
+      </c>
+      <c r="E21">
+        <v>108</v>
+      </c>
+      <c r="F21">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>-98.871780000000001</v>
+      </c>
+      <c r="C22">
+        <v>19.307054999999998</v>
+      </c>
+      <c r="D22">
+        <v>104</v>
+      </c>
+      <c r="E22">
+        <v>238</v>
+      </c>
+      <c r="F22">
+        <v>238</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>-98.875044000000003</v>
+      </c>
+      <c r="C23">
+        <v>19.299982</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>-99.164170999999996</v>
+      </c>
+      <c r="C24">
+        <v>19.637958999999999</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>91</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>-99.205059000000006</v>
+      </c>
+      <c r="C25">
+        <v>19.635532000000001</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>-99.041917999999995</v>
+      </c>
+      <c r="C26">
+        <v>19.587889000000001</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>44</v>
+      </c>
+      <c r="F26">
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>-99.037999999999997</v>
+      </c>
+      <c r="C27">
+        <v>19.602851999999999</v>
+      </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>-99.029195000000001</v>
+      </c>
+      <c r="C28">
+        <v>19.618784999999999</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+      <c r="E28">
+        <v>129</v>
+      </c>
+      <c r="F28">
+        <v>129</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>-99.033747000000005</v>
+      </c>
+      <c r="C29">
+        <v>19.458393000000001</v>
+      </c>
+      <c r="D29">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>110</v>
+      </c>
+      <c r="F29">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>-98.912721000000005</v>
+      </c>
+      <c r="C30">
+        <v>19.502880000000001</v>
+      </c>
+      <c r="D30">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>110</v>
+      </c>
+      <c r="F30">
+        <v>110</v>
+      </c>
+      <c r="G30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>-99.004378000000003</v>
+      </c>
+      <c r="C31">
+        <v>19.468900000000001</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>85</v>
+      </c>
+      <c r="F31">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>-99.148836000000003</v>
+      </c>
+      <c r="C32">
+        <v>19.242341</v>
+      </c>
+      <c r="D32">
+        <v>136</v>
+      </c>
+      <c r="E32">
+        <v>250</v>
+      </c>
+      <c r="F32">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>-99.240983999999997</v>
+      </c>
+      <c r="C33">
+        <v>19.05631</v>
+      </c>
+      <c r="D33">
+        <v>51</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>114</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>-99.296637000000004</v>
+      </c>
+      <c r="C34">
+        <v>19.431676</v>
+      </c>
+      <c r="D34">
+        <v>144</v>
+      </c>
+      <c r="E34">
+        <v>262</v>
+      </c>
+      <c r="F34">
+        <v>415</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>-99.314075000000003</v>
+      </c>
+      <c r="C35">
+        <v>19.332788000000001</v>
+      </c>
+      <c r="D35">
+        <v>105</v>
+      </c>
+      <c r="E35">
+        <v>210</v>
+      </c>
+      <c r="F35">
+        <v>210</v>
+      </c>
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>-99.315567000000001</v>
+      </c>
+      <c r="C36">
+        <v>19.330030000000001</v>
+      </c>
+      <c r="D36">
+        <v>52</v>
+      </c>
+      <c r="E36">
+        <v>105</v>
+      </c>
+      <c r="F36">
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/casetas.xlsx
+++ b/data/casetas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonvc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonvc/NODE LOCAL/bot-casetas-mexico/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B164EDAC-C03F-7641-9328-A011FB86129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DE699D-034D-1744-81E6-0AAD67A42EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12040" yWindow="5420" windowWidth="19300" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/casetas.xlsx
+++ b/data/casetas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonvc/NODE LOCAL/bot-casetas-mexico/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonvc/NODE LOCAL/BOT-CASETAS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DE699D-034D-1744-81E6-0AAD67A42EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC8AA2-F5A7-6E41-BCBC-D19AE1AD6B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12040" yWindow="5420" windowWidth="19300" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
   <si>
     <t>Nombre</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>caseta la venta-marquesa</t>
+  </si>
+  <si>
+    <t>S-N</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -636,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -644,10 +649,10 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>-99.212200999999993</v>
+        <v>-99.212456000000003</v>
       </c>
       <c r="C3">
-        <v>19.743611999999999</v>
+        <v>19.743592</v>
       </c>
       <c r="D3">
         <v>150</v>
@@ -665,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -694,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -789,10 +794,10 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>-98.870662999999993</v>
+        <v>-98.870620000000002</v>
       </c>
       <c r="C8">
-        <v>19.296441999999999</v>
+        <v>19.296437000000001</v>
       </c>
       <c r="D8">
         <v>156</v>

--- a/data/casetas.xlsx
+++ b/data/casetas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonvc/NODE LOCAL/BOT-CASETAS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25757A04-30CA-4044-B8A6-25C7CE936EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69EBF0E-9782-0445-9A1F-D2CCD76BA709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/casetas.xlsx
+++ b/data/casetas.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhonvc/NODE LOCAL/BOT-CASETAS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69EBF0E-9782-0445-9A1F-D2CCD76BA709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD60F07A-C379-9544-B57B-B6CA5288D988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casetas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="193">
   <si>
     <t>Nombre</t>
   </si>
@@ -46,535 +59,559 @@
     <t>Caseta Tepotzotlán 1</t>
   </si>
   <si>
-    <t>19.716282,-99.207619</t>
-  </si>
-  <si>
     <t>México-Querétaro</t>
   </si>
   <si>
     <t>Caseta Tepotzotlán 2</t>
   </si>
   <si>
-    <t>19.713798,-99.207362</t>
-  </si>
-  <si>
     <t>Caseta Palmillas 1</t>
   </si>
   <si>
-    <t>20.296721,-99.92976</t>
-  </si>
-  <si>
     <t>Caseta Palmillas 2</t>
   </si>
   <si>
-    <t>20.294307,-99.926318</t>
-  </si>
-  <si>
     <t>Caseta Palmillas Bis 1</t>
   </si>
   <si>
-    <t>20.291143,-99.918741</t>
-  </si>
-  <si>
     <t>Caseta Palmillas Bis 2</t>
   </si>
   <si>
-    <t>20.290348,-99.920282</t>
-  </si>
-  <si>
     <t>Caseta Chalco 1</t>
   </si>
   <si>
-    <t>19.291911,-98.881654</t>
+    <t>Mexico-puebla</t>
   </si>
   <si>
     <t>Caseta Chalco 2</t>
   </si>
   <si>
-    <t>19.293229,-98.883702</t>
-  </si>
-  <si>
     <t>Caseta Ixtapaluca 2</t>
   </si>
   <si>
-    <t>19.29014,-98.880372</t>
-  </si>
-  <si>
     <t>Caseta San Marcos Bis  1</t>
   </si>
   <si>
-    <t>19.293199,-98.87582</t>
-  </si>
-  <si>
     <t>Caseta San Martin 1</t>
   </si>
   <si>
-    <t>19.240887,-98.385689</t>
-  </si>
-  <si>
     <t>Caseta San Martin 2</t>
   </si>
   <si>
-    <t>19.242214,-98.385835</t>
-  </si>
-  <si>
     <t>Caseta San Marcos  1</t>
   </si>
   <si>
-    <t>19.296502,-98.869529</t>
-  </si>
-  <si>
     <t>Caseta San Marcos  2</t>
   </si>
   <si>
-    <t>19.296313,-98.87116</t>
-  </si>
-  <si>
     <t>Caseta Tehuacan Cruce 1</t>
   </si>
   <si>
-    <t>18.487076,-97.456261</t>
-  </si>
-  <si>
     <t>Caseta Tehuacan Cruce 2</t>
   </si>
   <si>
-    <t>18.487228,-97.456128</t>
-  </si>
-  <si>
     <t>Caseta Tehuacan 76A Entrada 1</t>
   </si>
   <si>
-    <t>18.487738,-97.457178</t>
-  </si>
-  <si>
     <t>Caseta Tehuacan 76A Entrada 2</t>
   </si>
   <si>
-    <t>18.487333,-97.456694</t>
-  </si>
-  <si>
     <t>Caseta Tehuacan 76B Salida 1</t>
   </si>
   <si>
-    <t>18.486354,-97.455077</t>
-  </si>
-  <si>
     <t>Caseta Tehuacan 76B Salida 2</t>
   </si>
   <si>
-    <t>18.486898,-97.455723</t>
-  </si>
-  <si>
     <t>Caseta Amozoc Cruce 1</t>
   </si>
   <si>
-    <t>19.049622,-98.032218</t>
-  </si>
-  <si>
     <t>Caseta Amozoc Cruce 2</t>
   </si>
   <si>
-    <t>19.049999,-98.032534</t>
-  </si>
-  <si>
     <t>Caseta Amozoc 26A 1</t>
   </si>
   <si>
-    <t>19.047949,-98.031093</t>
-  </si>
-  <si>
     <t>Caseta Amozoc 26B 2</t>
   </si>
   <si>
-    <t>19.049313,-98.029241</t>
-  </si>
-  <si>
     <t>Caseta Jorobas 69 1</t>
   </si>
   <si>
-    <t>19.825412,-99.249725</t>
-  </si>
-  <si>
     <t>Caseta Jorobas 69 2</t>
   </si>
   <si>
-    <t>19.826213,-99.249966</t>
-  </si>
-  <si>
     <t>Caseta T0 Jorobas 1</t>
   </si>
   <si>
-    <t>19.819826,-99.240272</t>
+    <t>circuito ext mexiquense</t>
   </si>
   <si>
     <t>Caseta T0 Jorobas 2</t>
   </si>
   <si>
-    <t>19.819951,-99.23957</t>
-  </si>
-  <si>
     <t>Caseta T1 Tultepec 1</t>
   </si>
   <si>
-    <t>19.694187,-99.080301</t>
-  </si>
-  <si>
     <t>Caseta T1 Tultepec 2</t>
   </si>
   <si>
-    <t>19.693535,-99.080565</t>
-  </si>
-  <si>
     <t>Caseta A31 Tultepec Aifa 1</t>
   </si>
   <si>
-    <t>19.702411,-99.08526</t>
-  </si>
-  <si>
     <t>Caseta A32 Tultepec Aifa 1</t>
   </si>
   <si>
-    <t>19.693684,-99.079755</t>
-  </si>
-  <si>
     <t>Caseta A32 Tultepec Aifa 2</t>
   </si>
   <si>
-    <t>19.693868,-99.081088</t>
-  </si>
-  <si>
     <t>Caseta T2 Conmex 1</t>
   </si>
   <si>
-    <t>19.575709,-99.020493</t>
-  </si>
-  <si>
     <t>Caseta T2 Conmex 2</t>
   </si>
   <si>
-    <t>19.575277,-99.020554</t>
-  </si>
-  <si>
     <t>Caseta T3 Nabor Carrillo (Puebla) C1 1</t>
   </si>
   <si>
-    <t>19.43592,-98.998056</t>
-  </si>
-  <si>
     <t>Caseta T3 Nabor Carrillo (Puebla) C1 2</t>
   </si>
   <si>
-    <t>19.435725,-98.998643</t>
-  </si>
-  <si>
     <t>Caseta T3 Nabor Carrillo (Puebla) C2 1</t>
   </si>
   <si>
-    <t>19.43592,-98.998247</t>
-  </si>
-  <si>
     <t>Caseta T3 Nabor Carrillo (Puebla) C2 2</t>
   </si>
   <si>
-    <t>19.435738,-98.998496</t>
-  </si>
-  <si>
     <t>Casetas T3 Nabor Carrillo (Bordo) 1</t>
   </si>
   <si>
-    <t>19.496211,-98.947275</t>
-  </si>
-  <si>
     <t>Casetas T3 Nabor Carrillo (Bordo) 2</t>
   </si>
   <si>
-    <t>19.495825,-98.947337</t>
-  </si>
-  <si>
     <t>Caseta T4 Chalco 1</t>
   </si>
   <si>
-    <t>19.300278,-98.875007</t>
-  </si>
-  <si>
     <t>Caseta T4 Chalco 2</t>
   </si>
   <si>
-    <t>19.299948,-98.875493</t>
-  </si>
-  <si>
     <t>Caseta A2 Los Reyes 1</t>
   </si>
   <si>
-    <t>19.610949,-99.038608</t>
-  </si>
-  <si>
     <t>Caseta A5 Hank Gonzalez 2</t>
   </si>
   <si>
-    <t>19.5846,-99.027822</t>
-  </si>
-  <si>
     <t>Caseta A6 Periferico 2</t>
   </si>
   <si>
-    <t>19.48715,-99.016357</t>
-  </si>
-  <si>
     <t>Caseta A7 Periferico 1</t>
   </si>
   <si>
-    <t>19.48584,-99.015093</t>
-  </si>
-  <si>
     <t>Caseta A8 Pichardo 2</t>
   </si>
   <si>
-    <t>19.505776,-99.014997</t>
-  </si>
-  <si>
     <t>Caseta A9 Ctm 1</t>
   </si>
   <si>
-    <t>19.488138,-99.019387</t>
-  </si>
-  <si>
     <t>Caseta A21 Bordo De Xochiaca 1</t>
   </si>
   <si>
-    <t>19.425685,-98.998506</t>
-  </si>
-  <si>
     <t>Casetas A22 Bordo De Xochiaca 2</t>
   </si>
   <si>
-    <t>19.425601,-98.998793</t>
-  </si>
-  <si>
     <t>Caseta T7 Texcoco 1</t>
   </si>
   <si>
-    <t>19.450625,-98.910726</t>
-  </si>
-  <si>
     <t>Caseta T7 Texcoco 2</t>
   </si>
   <si>
-    <t>19.450804,-98.911102</t>
-  </si>
-  <si>
     <t>Caseta A27 San Buena Ventura 1</t>
   </si>
   <si>
-    <t>19.307177,-98.8717</t>
-  </si>
-  <si>
     <t>Caseta A28 San Buena Ventura 1</t>
   </si>
   <si>
-    <t>19.300116,-98.874967</t>
-  </si>
-  <si>
     <t>Caseta T5 Tultitlan 1</t>
   </si>
   <si>
-    <t>19.637622,-99.165735</t>
-  </si>
-  <si>
     <t>Caseta T5 Tultitlan 2</t>
   </si>
   <si>
-    <t>19.637678,-99.164235</t>
-  </si>
-  <si>
     <t>Caseta A33 Vialidad Mexiquense Ii 2</t>
   </si>
   <si>
-    <t>19.638385,-99.15611</t>
-  </si>
-  <si>
     <t>Caseta A34 Vialidad Mexiquense Ii 2</t>
   </si>
   <si>
-    <t>19.637557,-99.163765</t>
-  </si>
-  <si>
     <t>Caseta A35 Vialidad Mexiquense Ii 1</t>
   </si>
   <si>
     <t>Caseta A36 Vialidad Mexiquense Ii 1</t>
   </si>
   <si>
-    <t>19.638245,-99.15935</t>
-  </si>
-  <si>
     <t>Caseta T6 Cuautitlán Izcalli 1</t>
   </si>
   <si>
-    <t>19.635288,-99.203828</t>
-  </si>
-  <si>
     <t>Caseta T6 Cuautitlán Izcalli 2</t>
   </si>
   <si>
-    <t>19.635294,-99.203766</t>
-  </si>
-  <si>
     <t>Caseta San Cristobal (Ecatepec) 1</t>
   </si>
   <si>
-    <t>19.587634,-99.041781</t>
+    <t>México-Pachuca</t>
   </si>
   <si>
     <t>Caseta San Cristobal (Ecatepec) 2</t>
   </si>
   <si>
-    <t>19.588026,-99.04226</t>
-  </si>
-  <si>
     <t>Caseta A3 Pachuca Aifa 1</t>
   </si>
   <si>
-    <t>19.602273,-99.037249</t>
-  </si>
-  <si>
     <t>Caseta A4 Pachuca-Piramides 2</t>
   </si>
   <si>
-    <t>19.603517,-99.037204</t>
-  </si>
-  <si>
     <t>Caseta Revolucion 91 Piramides-Tula 1</t>
   </si>
   <si>
-    <t>19.609307,-99.033709</t>
-  </si>
-  <si>
     <t>Caseta Revolucion 91 Cruce 1</t>
   </si>
   <si>
-    <t>19.602879,-99.037997</t>
-  </si>
-  <si>
     <t>Caseta Revolucion 91 Cruce 2</t>
   </si>
   <si>
-    <t>19.602738,-99.038201</t>
-  </si>
-  <si>
     <t>Caseta Revolucion 91 Lecheria 1</t>
   </si>
   <si>
-    <t>19.60283,-99.037856</t>
-  </si>
-  <si>
     <t>Caseta Revolucion 91 Lecheria 2</t>
   </si>
   <si>
-    <t>19.6028,-99.038329</t>
-  </si>
-  <si>
     <t>Caseta Revolucion 91 Piramides 1</t>
   </si>
   <si>
-    <t>19.602672,-99.037579</t>
-  </si>
-  <si>
     <t>Caseta Revolucion 91 Piramides 2</t>
   </si>
   <si>
-    <t>19.602885,-99.038473</t>
-  </si>
-  <si>
     <t>Caseta Revolucion 91 Ecatepec 2</t>
   </si>
   <si>
-    <t>19.602956,-99.038587</t>
-  </si>
-  <si>
     <t>Caseta Ecatepec Piramides 1</t>
   </si>
   <si>
-    <t>19.611685,-99.025436</t>
+    <t>Ecatepec-Piramides</t>
   </si>
   <si>
     <t>Caseta Ecatepec Piramides 2</t>
   </si>
   <si>
-    <t>19.611786,-99.02608</t>
-  </si>
-  <si>
     <t>Caseta Ojo De Agua  1</t>
   </si>
   <si>
-    <t>19.618795,-99.029189</t>
-  </si>
-  <si>
     <t>Caseta Ojo De Agua  2</t>
   </si>
   <si>
-    <t>19.618882,-99.029826</t>
-  </si>
-  <si>
     <t>Caseta Entronque Ojo De Agua 2</t>
   </si>
   <si>
-    <t>19.618694,-99.028929</t>
-  </si>
-  <si>
     <t>Caseta Peñon Texcoco 1</t>
   </si>
   <si>
-    <t>19.458505,-99.033532</t>
+    <t>Peñon-Texcoco</t>
   </si>
   <si>
     <t>Caseta Peñon Texcoco 2</t>
   </si>
   <si>
-    <t>19.50283,-98.912853</t>
-  </si>
-  <si>
     <t>Casetas Entronque Peñon 1</t>
   </si>
   <si>
-    <t>19.468825,-99.004494</t>
-  </si>
-  <si>
     <t>Caseta De Tlalpan 1</t>
   </si>
   <si>
-    <t>19.242081,-99.14863</t>
+    <t>México-Cuernavaca</t>
   </si>
   <si>
     <t>Caseta De Tlalpan 2</t>
   </si>
   <si>
-    <t>19.24295,-99.148813</t>
-  </si>
-  <si>
     <t>Caseta Tres Marias 1</t>
   </si>
   <si>
-    <t>19.056299,-99.241117</t>
-  </si>
-  <si>
     <t>Caseta Tres Marias 2</t>
   </si>
   <si>
-    <t>19.056392,-99.241107</t>
-  </si>
-  <si>
     <t>Caseta La Venta-Marquesa 1</t>
   </si>
   <si>
-    <t>19.330456,-99.315754</t>
+    <t>México-Toluca</t>
   </si>
   <si>
     <t>Caseta La Venta-Marquesa 2</t>
   </si>
   <si>
-    <t>19.328605,-99.316292</t>
+    <t>19.71555, -99.20740</t>
+  </si>
+  <si>
+    <t>19.71377, -99.20730</t>
+  </si>
+  <si>
+    <t>20.29677, -99.92983</t>
+  </si>
+  <si>
+    <t>20.29431, -99.92629</t>
+  </si>
+  <si>
+    <t>20.29074, -99.91841</t>
+  </si>
+  <si>
+    <t>20.29035, -99.92017</t>
+  </si>
+  <si>
+    <t>19.29188, -98.88166</t>
+  </si>
+  <si>
+    <t>19.29324, -98.88373</t>
+  </si>
+  <si>
+    <t>19.28990, -98.88045</t>
+  </si>
+  <si>
+    <t>19.29291, -98.87558</t>
+  </si>
+  <si>
+    <t>19.24102, -98.38583</t>
+  </si>
+  <si>
+    <t>19.24210, -98.38551</t>
+  </si>
+  <si>
+    <t>19.29654, -98.86954</t>
+  </si>
+  <si>
+    <t>19.29640, -98.87117</t>
+  </si>
+  <si>
+    <t>18.48707, -97.45622</t>
+  </si>
+  <si>
+    <t>18.48735, -97.45612</t>
+  </si>
+  <si>
+    <t>18.48778, -97.45720</t>
+  </si>
+  <si>
+    <t>18.48735, -97.45661</t>
+  </si>
+  <si>
+    <t>18.48634, -97.45501</t>
+  </si>
+  <si>
+    <t>18.48706, -97.45603</t>
+  </si>
+  <si>
+    <t>19.04966, -98.03216</t>
+  </si>
+  <si>
+    <t>19.05013, -98.03328</t>
+  </si>
+  <si>
+    <t>19.04792, -98.03109</t>
+  </si>
+  <si>
+    <t>19.04930, -98.02922</t>
+  </si>
+  <si>
+    <t>19.82604, -99.24987</t>
+  </si>
+  <si>
+    <t>19.82540, -99.24969</t>
+  </si>
+  <si>
+    <t>19.81972, -99.24045</t>
+  </si>
+  <si>
+    <t>19.81998, -99.23955</t>
+  </si>
+  <si>
+    <t>19.69425, -99.08031</t>
+  </si>
+  <si>
+    <t>19.69350, -99.08050</t>
+  </si>
+  <si>
+    <t>19.70238, -99.08510</t>
+  </si>
+  <si>
+    <t>19.69383, -99.07980</t>
+  </si>
+  <si>
+    <t>19.69382, -99.08108</t>
+  </si>
+  <si>
+    <t>19.57572, -99.02056</t>
+  </si>
+  <si>
+    <t>19.57528, -99.02055</t>
+  </si>
+  <si>
+    <t>19.43566, -98.99810</t>
+  </si>
+  <si>
+    <t>19.43568, -98.99865</t>
+  </si>
+  <si>
+    <t>19.43478, -98.99835</t>
+  </si>
+  <si>
+    <t>19.43477, -98.99854</t>
+  </si>
+  <si>
+    <t>19.49632, -98.94732</t>
+  </si>
+  <si>
+    <t>19.49562, -98.94716</t>
+  </si>
+  <si>
+    <t>19.30038, -98.87503</t>
+  </si>
+  <si>
+    <t>19.29984, -98.87553</t>
+  </si>
+  <si>
+    <t>19.61108, -99.03845</t>
+  </si>
+  <si>
+    <t>19.58495, -99.02786</t>
+  </si>
+  <si>
+    <t>19.48697, -99.01634</t>
+  </si>
+  <si>
+    <t>19.48552, -99.01505</t>
+  </si>
+  <si>
+    <t>19.50578, -99.01495</t>
+  </si>
+  <si>
+    <t>19.48809, -99.01946</t>
+  </si>
+  <si>
+    <t>19.42578, -98.99845</t>
+  </si>
+  <si>
+    <t>19.42556, -98.99882</t>
+  </si>
+  <si>
+    <t>19.45063, -98.91112</t>
+  </si>
+  <si>
+    <t>19.45076, -98.91132</t>
+  </si>
+  <si>
+    <t>19.30746, -98.87140</t>
+  </si>
+  <si>
+    <t>19.30022, -98.87486</t>
+  </si>
+  <si>
+    <t>19.63760, -99.16592</t>
+  </si>
+  <si>
+    <t>19.63768, -99.16424</t>
+  </si>
+  <si>
+    <t>19.63846, -99.15610</t>
+  </si>
+  <si>
+    <t>19.63756, -99.16360</t>
+  </si>
+  <si>
+    <t>19.63851, -99.15600</t>
+  </si>
+  <si>
+    <t>19.63847, -99.15932</t>
+  </si>
+  <si>
+    <t>19.63533, -99.20587</t>
+  </si>
+  <si>
+    <t>19.63529, -99.20365</t>
+  </si>
+  <si>
+    <t>19.58778, -99.04162</t>
+  </si>
+  <si>
+    <t>19.58791, -99.04219</t>
+  </si>
+  <si>
+    <t>19.60230, -99.03722</t>
+  </si>
+  <si>
+    <t>19.60345, -99.03722</t>
+  </si>
+  <si>
+    <t>19.60881, -99.03425</t>
+  </si>
+  <si>
+    <t>19.60308, -99.03789</t>
+  </si>
+  <si>
+    <t>19.60269, -99.03822</t>
+  </si>
+  <si>
+    <t>19.60289, -99.03766</t>
+  </si>
+  <si>
+    <t>19.60280, -99.03833</t>
+  </si>
+  <si>
+    <t>19.60273, -99.03754</t>
+  </si>
+  <si>
+    <t>19.60301, -99.03842</t>
+  </si>
+  <si>
+    <t>19.60314, -99.03854</t>
+  </si>
+  <si>
+    <t>19.61170, -99.02535</t>
+  </si>
+  <si>
+    <t>19.61176, -99.02626</t>
+  </si>
+  <si>
+    <t>19.62061, -99.02850</t>
+  </si>
+  <si>
+    <t>19.61938, -99.02940</t>
+  </si>
+  <si>
+    <t>19.61945, -99.02876</t>
+  </si>
+  <si>
+    <t>19.45872, -99.03276</t>
+  </si>
+  <si>
+    <t>19.50269, -98.91319</t>
+  </si>
+  <si>
+    <t>19.46913, -99.00384</t>
+  </si>
+  <si>
+    <t>19.24197, -99.14861</t>
+  </si>
+  <si>
+    <t>19.24294, -99.14869</t>
+  </si>
+  <si>
+    <t>19.05632, -99.24108</t>
+  </si>
+  <si>
+    <t>19.05639, -99.24113</t>
+  </si>
+  <si>
+    <t>19.33130, -99.31533</t>
+  </si>
+  <si>
+    <t>19.32859, -99.31628</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="C2">
         <v>102</v>
@@ -1003,18 +1040,18 @@
         <v>444</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="C3">
         <v>102</v>
@@ -1026,18 +1063,18 @@
         <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <v>102</v>
@@ -1049,18 +1086,18 @@
         <v>416</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>102</v>
@@ -1072,18 +1109,18 @@
         <v>416</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>102</v>
@@ -1095,18 +1132,18 @@
         <v>416</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="C7">
         <v>102</v>
@@ -1118,18 +1155,18 @@
         <v>416</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -1141,18 +1178,18 @@
         <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -1164,18 +1201,18 @@
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -1187,18 +1224,18 @@
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C11">
         <v>26</v>
@@ -1210,18 +1247,18 @@
         <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="C12">
         <v>48</v>
@@ -1233,18 +1270,18 @@
         <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>48</v>
@@ -1256,18 +1293,18 @@
         <v>225</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="C14">
         <v>156</v>
@@ -1279,18 +1316,18 @@
         <v>593</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C15">
         <v>156</v>
@@ -1302,18 +1339,18 @@
         <v>593</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C16">
         <v>52</v>
@@ -1325,18 +1362,18 @@
         <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C17">
         <v>52</v>
@@ -1348,18 +1385,18 @@
         <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C18">
         <v>52</v>
@@ -1371,18 +1408,18 @@
         <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="C19">
         <v>52</v>
@@ -1394,18 +1431,18 @@
         <v>146</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C20">
         <v>52</v>
@@ -1417,18 +1454,18 @@
         <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <v>52</v>
@@ -1440,18 +1477,18 @@
         <v>146</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C22">
         <v>84</v>
@@ -1463,18 +1500,18 @@
         <v>310</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="C23">
         <v>84</v>
@@ -1486,18 +1523,18 @@
         <v>310</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C24">
         <v>84</v>
@@ -1509,18 +1546,18 @@
         <v>310</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C25">
         <v>84</v>
@@ -1532,18 +1569,18 @@
         <v>310</v>
       </c>
       <c r="F25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C26">
         <v>68</v>
@@ -1555,18 +1592,18 @@
         <v>239</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C27">
         <v>68</v>
@@ -1578,18 +1615,18 @@
         <v>239</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="C28">
         <v>155</v>
@@ -1601,18 +1638,18 @@
         <v>679</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C29">
         <v>155</v>
@@ -1624,18 +1661,18 @@
         <v>679</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="C30">
         <v>109</v>
@@ -1647,18 +1684,18 @@
         <v>420</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="C31">
         <v>109</v>
@@ -1670,18 +1707,18 @@
         <v>420</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="C32">
         <v>90</v>
@@ -1693,18 +1730,18 @@
         <v>349</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -1716,18 +1753,18 @@
         <v>349</v>
       </c>
       <c r="F33" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C34">
         <v>90</v>
@@ -1739,18 +1776,18 @@
         <v>349</v>
       </c>
       <c r="F34" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C35">
         <v>77</v>
@@ -1762,18 +1799,18 @@
         <v>298</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>77</v>
@@ -1785,18 +1822,18 @@
         <v>298</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="C37">
         <v>48</v>
@@ -1808,18 +1845,18 @@
         <v>187</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="C38">
         <v>48</v>
@@ -1831,18 +1868,18 @@
         <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C39">
         <v>48</v>
@@ -1854,18 +1891,18 @@
         <v>187</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="C40">
         <v>48</v>
@@ -1877,18 +1914,18 @@
         <v>187</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C41">
         <v>34</v>
@@ -1900,18 +1937,18 @@
         <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="C42">
         <v>34</v>
@@ -1923,18 +1960,18 @@
         <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C43">
         <v>112</v>
@@ -1946,18 +1983,18 @@
         <v>432</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="C44">
         <v>112</v>
@@ -1969,18 +2006,18 @@
         <v>432</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -1992,18 +2029,18 @@
         <v>78</v>
       </c>
       <c r="F45" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -2015,18 +2052,18 @@
         <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C47">
         <v>26</v>
@@ -2038,18 +2075,18 @@
         <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="C48">
         <v>26</v>
@@ -2061,18 +2098,18 @@
         <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C49">
         <v>25</v>
@@ -2084,18 +2121,18 @@
         <v>96</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C50">
         <v>11</v>
@@ -2107,18 +2144,18 @@
         <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="C51">
         <v>32</v>
@@ -2130,18 +2167,18 @@
         <v>124</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C52">
         <v>32</v>
@@ -2153,18 +2190,18 @@
         <v>124</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="C53">
         <v>47</v>
@@ -2176,18 +2213,18 @@
         <v>183</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="C54">
         <v>47</v>
@@ -2199,18 +2236,18 @@
         <v>183</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C55">
         <v>104</v>
@@ -2222,18 +2259,18 @@
         <v>402</v>
       </c>
       <c r="F55" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C56">
         <v>7</v>
@@ -2245,18 +2282,18 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="C57">
         <v>40</v>
@@ -2268,18 +2305,18 @@
         <v>154</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C58">
         <v>40</v>
@@ -2291,18 +2328,18 @@
         <v>154</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="C59">
         <v>16</v>
@@ -2314,18 +2351,18 @@
         <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="C60">
         <v>24</v>
@@ -2337,18 +2374,18 @@
         <v>92</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C61">
         <v>16</v>
@@ -2360,18 +2397,18 @@
         <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C62">
         <v>24</v>
@@ -2383,18 +2420,18 @@
         <v>92</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C63">
         <v>29</v>
@@ -2406,18 +2443,18 @@
         <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C64">
         <v>29</v>
@@ -2429,18 +2466,18 @@
         <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="C65">
         <v>26</v>
@@ -2452,18 +2489,18 @@
         <v>92</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C66">
         <v>26</v>
@@ -2475,18 +2512,18 @@
         <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -2498,18 +2535,18 @@
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="C68">
         <v>14</v>
@@ -2521,18 +2558,18 @@
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C69">
         <v>33</v>
@@ -2544,18 +2581,18 @@
         <v>118</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2567,18 +2604,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2590,18 +2627,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="C72">
         <v>33</v>
@@ -2613,18 +2650,18 @@
         <v>118</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C73">
         <v>33</v>
@@ -2636,18 +2673,18 @@
         <v>118</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C74">
         <v>41</v>
@@ -2659,18 +2696,18 @@
         <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="C75">
         <v>41</v>
@@ -2682,18 +2719,18 @@
         <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C76">
         <v>41</v>
@@ -2705,18 +2742,18 @@
         <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C77">
         <v>105</v>
@@ -2728,18 +2765,18 @@
         <v>293</v>
       </c>
       <c r="F77" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="C78">
         <v>105</v>
@@ -2751,18 +2788,18 @@
         <v>293</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C79">
         <v>65</v>
@@ -2774,18 +2811,18 @@
         <v>261</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C80">
         <v>65</v>
@@ -2797,18 +2834,18 @@
         <v>261</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C81">
         <v>38</v>
@@ -2820,18 +2857,18 @@
         <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C82">
         <v>55</v>
@@ -2843,18 +2880,18 @@
         <v>169</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C83">
         <v>55</v>
@@ -2866,18 +2903,18 @@
         <v>169</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C84">
         <v>41</v>
@@ -2889,18 +2926,18 @@
         <v>128</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C85">
         <v>136</v>
@@ -2912,18 +2949,18 @@
         <v>427</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C86">
         <v>136</v>
@@ -2935,18 +2972,18 @@
         <v>427</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C87">
         <v>51</v>
@@ -2958,18 +2995,18 @@
         <v>218</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C88">
         <v>51</v>
@@ -2981,18 +3018,18 @@
         <v>218</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C89">
         <v>154</v>
@@ -3004,18 +3041,18 @@
         <v>288</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C90">
         <v>154</v>
@@ -3027,16 +3064,16 @@
         <v>288</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G90" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>